--- a/spadmin.xlsx
+++ b/spadmin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flex/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flex/GitHub/spadmin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F732CB0-18FA-1144-A08A-3987FBD8139F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78A0990-7D33-F349-98F6-73066EBE251C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2260" windowWidth="28040" windowHeight="17440" xr2:uid="{47D59852-35F2-7747-BD17-9AB11F228ED5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>sh</t>
   </si>
@@ -118,6 +118,78 @@
 CEVA_WIN_BD     DEVCLASS
 CEVA_WINDIR_BD  DEVCLASS
 CLOUDPOOL       CLOUD</t>
+  </si>
+  <si>
+    <t>upd stgp DISKPOOL</t>
+  </si>
+  <si>
+    <t>ha DISK</t>
+  </si>
+  <si>
+    <t>DESCription=</t>
+  </si>
+  <si>
+    <t>ACCess=</t>
+  </si>
+  <si>
+    <t>READWrite vagy READOnly vagy UNAVailable</t>
+  </si>
+  <si>
+    <t>szabadszöveg</t>
+  </si>
+  <si>
+    <t>MAXSIze=</t>
+  </si>
+  <si>
+    <t>szám vagy NOLimit</t>
+  </si>
+  <si>
+    <t>CRCData=</t>
+  </si>
+  <si>
+    <t>Yes vagy No</t>
+  </si>
+  <si>
+    <t>NEXTstgpool=</t>
+  </si>
+  <si>
+    <t>HIghmig=</t>
+  </si>
+  <si>
+    <t>szám</t>
+  </si>
+  <si>
+    <t>LOwmig=</t>
+  </si>
+  <si>
+    <t>CAChe=</t>
+  </si>
+  <si>
+    <t>MIGPRocess=</t>
+  </si>
+  <si>
+    <t>MIGDelay=</t>
+  </si>
+  <si>
+    <t>MIGContinue=</t>
+  </si>
+  <si>
+    <t>AUTOCopy=</t>
+  </si>
+  <si>
+    <t>None vagy  CLient vagy MIGRation vagy All</t>
+  </si>
+  <si>
+    <t>COPYSTGpools=</t>
+  </si>
+  <si>
+    <t>select STGPOO_NAME from stgpools where POOLTYPE='PRIMARY'</t>
+  </si>
+  <si>
+    <t>vesszővel lehet többet is</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upd stgp DISKPOOL </t>
   </si>
 </sst>
 </file>
@@ -167,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -177,6 +249,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,16 +564,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337666E1-0FE6-4A47-863A-DF988152565A}">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -592,7 +667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -603,14 +678,137 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="252" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="252" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
